--- a/new_structure/data/excel_test.xlsx
+++ b/new_structure/data/excel_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thomas\Documents\IIT\5 - Research Project\Research_Project\new_structure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA512F-8328-4CB3-9A1B-9F38F031DEF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B7D8D-2E45-48E5-BB70-5DB732AF48F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BB25F98-CF48-4349-B915-F6E7ADA8E7AC}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{5BB25F98-CF48-4349-B915-F6E7ADA8E7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>sentence</t>
   </si>
@@ -184,6 +184,306 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>giveaway</t>
+  </si>
+  <si>
+    <t>Third, concurrent access from multiple IP addresses using the same host id is a dead giveaway that something bad is going on.</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>Wisdom can be defined as a deep understanding of knowledge.</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>Solidarity of the European kind is now a dirty word in Germany.</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>wit</t>
+  </si>
+  <si>
+    <t>Armed with a ukulele, her dry wit and impeccable timing is sure to be a hit. </t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>It was pure dumb luck that I found out about it.</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>These companies are offering empty promises and inaccurate information.</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>Fat chance that gets resolved any time soon.</t>
+  </si>
+  <si>
+    <t>fiery</t>
+  </si>
+  <si>
+    <t>temper</t>
+  </si>
+  <si>
+    <t>He’s also human, always had a fiery temper and like all of us at one time or another did something we regretted later on.</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>Ok, so some girls know what we have in our filthy minds.</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>Your firm conviction and a resolve not to use your credit cards while the program is on is all it takes to guarantee its success.</t>
+  </si>
+  <si>
+    <t>foggy</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>Her reaction to spelt was dizziness, nausea and a strong feeling of foggy brain.</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thinking</t>
+  </si>
+  <si>
+    <t>it will require fresh thinking and new products.</t>
+  </si>
+  <si>
+    <t>frosty</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>Following the earlier quake, Turkey accepted help from dozens of countries, including Israel and Armenia with which it has frosty relations.</t>
+  </si>
+  <si>
+    <t>fuzzy</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>The brain uses a sort of fuzzy logic.</t>
+  </si>
+  <si>
+    <t>greasy</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>One tall old guy came up to me with a greasy smile , and said, yes, and who are you?</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>Wind and wave power providing the green energy of the future.</t>
+  </si>
+  <si>
+    <t>hairy</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>This is a solution to a hairy problem.</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>I want to thank you for sharing the hard truth about your recent engagement.</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>Some see a healthy balance of 75 percent tenure track and the rest multi-year fixed-term. </t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Graft is an unusually heavy tax on Indian business.</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>Sporadic but heavy fighting continued as U.S. tanks rolled into the Old City of Najaf to within 500 yards of Iraq's holiest Shiite shrine, witnesses said. </t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>An honest meal at a reasonable price is a rarity in Milan.</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>Adding commercial links to images is a hot topic, and the first category we think about is fashion. </t>
+  </si>
+  <si>
+    <t>icy</t>
+  </si>
+  <si>
+    <t>glare</t>
+  </si>
+  <si>
+    <t>Their initial icy glares had turned to restless agitation.</t>
+  </si>
+  <si>
+    <t>juicy</t>
+  </si>
+  <si>
+    <t>scandal</t>
+  </si>
+  <si>
+    <t>Everyone else is telling tales of the latest juicy scandal.</t>
+  </si>
+  <si>
+    <t>lame</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>I initially thought it was some lame excuse to get me out of their office.</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>When I was in college I lived on a very lean budget.</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>This summer and part of the fall will be a mad sprint to finish up various projects.</t>
+  </si>
+  <si>
+    <t>murky</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>The protagonist, Trinity Pierce, is a college professor with a murky past, who lives and works in Cambridge, Massachusetts.</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>So do all men of narrow minds like to be worshipped for what they have no claim to?</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>prose</t>
+  </si>
+  <si>
+    <t>Now I read the post, the poster was showing a written example of purple prose.</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>revolution</t>
+  </si>
+  <si>
+    <t>We have not had many  quiet revolutions  happening on this planet.</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>emotion</t>
+  </si>
+  <si>
+    <t>You can hear the raw emotion in the researcher’s voice.</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Interior minister Rehman Malik announced a nationwide red alert.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDB4A4F-40C0-473C-8FD2-F4DC859D10FA}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,129 +1046,416 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="2"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
@@ -881,18 +1470,18 @@
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="2"/>
-    </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="2"/>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
     </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+    </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
     </row>
@@ -917,15 +1506,15 @@
     <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="2"/>
-    </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
     </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="2"/>
+    </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
     </row>
@@ -947,23 +1536,14 @@
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
-    </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
